--- a/in/ref.xlsx
+++ b/in/ref.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$142</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="327">
   <si>
     <t>cat1</t>
   </si>
@@ -72,22 +75,49 @@
     <t>comorbidity</t>
   </si>
   <si>
+    <t>dementia</t>
+  </si>
+  <si>
+    <t>alcohol abuse</t>
+  </si>
+  <si>
+    <t>opioid abuse</t>
+  </si>
+  <si>
+    <t>OCD</t>
+  </si>
+  <si>
     <t>depression</t>
   </si>
   <si>
-    <t>OCD</t>
-  </si>
-  <si>
     <t>Mental Behavioral and Neurodevelopmental disorders</t>
   </si>
   <si>
+    <t>Diseases of the nervous system</t>
+  </si>
+  <si>
+    <t>Factors influencing health status and contact with health services</t>
+  </si>
+  <si>
+    <t>Mental disorders due to known physiological conditions</t>
+  </si>
+  <si>
+    <t>Mental and behavioral disorders due to psychoactive substance use</t>
+  </si>
+  <si>
+    <t>Anxiety dissociative stress</t>
+  </si>
+  <si>
+    <t>Other degenerative diseases of the nervous system</t>
+  </si>
+  <si>
     <t>Mood [affective] disorders</t>
   </si>
   <si>
-    <t>Anxiety dissociative stress</t>
-  </si>
-  <si>
-    <t>Mental disorders due to known physiological conditions</t>
+    <t>Persons with potential health hazards related to family and personal history and certain conditions influencing health status</t>
+  </si>
+  <si>
+    <t>Persons encountering health services in other circumstances</t>
   </si>
   <si>
     <t>Schizophrenia schizotypal delusional and other non</t>
@@ -96,10 +126,34 @@
     <t>Disorders of adult personality and behavior</t>
   </si>
   <si>
+    <t>Vascular dementia</t>
+  </si>
+  <si>
+    <t>Unspecified dementia</t>
+  </si>
+  <si>
+    <t>Alcohol related disorders</t>
+  </si>
+  <si>
+    <t>Opioid related disorders</t>
+  </si>
+  <si>
+    <t>Other psychoactive substance related disorders</t>
+  </si>
+  <si>
+    <t>Obsessive-compulsive disorder</t>
+  </si>
+  <si>
+    <t>Oth degenerative diseases of nervous system NEC</t>
+  </si>
+  <si>
     <t>Major depressive disorder recurrent</t>
   </si>
   <si>
-    <t>Obsessive-compulsive disorder</t>
+    <t>Sedative hypnotic or anxiolytic related disorders</t>
+  </si>
+  <si>
+    <t>Dementia in other diseases classified elsewhere</t>
   </si>
   <si>
     <t>Major depressive disorder single episode</t>
@@ -108,42 +162,120 @@
     <t>Other mental disorders due to known physiological condition</t>
   </si>
   <si>
+    <t>Inhalant related disorders</t>
+  </si>
+  <si>
+    <t>Family history of mental and behavioral disorders</t>
+  </si>
+  <si>
+    <t>Persons encntr health serv for oth cnsl and med advice NEC</t>
+  </si>
+  <si>
     <t>Schizoaffective disorders</t>
   </si>
   <si>
     <t>Specific personality disorders</t>
   </si>
   <si>
+    <t>icd_10</t>
+  </si>
+  <si>
     <t>icd_9</t>
   </si>
   <si>
-    <t>icd_10</t>
+    <t>F200</t>
+  </si>
+  <si>
+    <t>29530</t>
+  </si>
+  <si>
+    <t>F205</t>
   </si>
   <si>
     <t>No map</t>
   </si>
   <si>
-    <t>F205</t>
-  </si>
-  <si>
-    <t>29530</t>
-  </si>
-  <si>
-    <t>F200</t>
+    <t>F0150</t>
+  </si>
+  <si>
+    <t>F039</t>
+  </si>
+  <si>
+    <t>F0390</t>
+  </si>
+  <si>
+    <t>F10150</t>
+  </si>
+  <si>
+    <t>F11120</t>
+  </si>
+  <si>
+    <t>F11122</t>
+  </si>
+  <si>
+    <t>F1917</t>
+  </si>
+  <si>
+    <t>F1927</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>G3109</t>
+  </si>
+  <si>
+    <t>F1011</t>
+  </si>
+  <si>
+    <t>F11181</t>
+  </si>
+  <si>
+    <t>F11188</t>
+  </si>
+  <si>
+    <t>F330</t>
+  </si>
+  <si>
+    <t>F1097</t>
+  </si>
+  <si>
+    <t>F1018</t>
+  </si>
+  <si>
+    <t>F1112</t>
+  </si>
+  <si>
+    <t>F11129</t>
   </si>
   <si>
     <t>F338</t>
   </si>
   <si>
-    <t>F42</t>
-  </si>
-  <si>
-    <t>F330</t>
+    <t>F1012</t>
+  </si>
+  <si>
+    <t>F10151</t>
+  </si>
+  <si>
+    <t>F1119</t>
   </si>
   <si>
     <t>F3341</t>
   </si>
   <si>
+    <t>F1327</t>
+  </si>
+  <si>
+    <t>29410</t>
+  </si>
+  <si>
+    <t>2912</t>
+  </si>
+  <si>
+    <t>29282</t>
+  </si>
+  <si>
     <t>29621</t>
   </si>
   <si>
@@ -153,10 +285,16 @@
     <t>29634</t>
   </si>
   <si>
+    <t>F201</t>
+  </si>
+  <si>
     <t>29560</t>
   </si>
   <si>
-    <t>F201</t>
+    <t>F0280</t>
+  </si>
+  <si>
+    <t>F0391</t>
   </si>
   <si>
     <t>F0631</t>
@@ -165,153 +303,393 @@
     <t>F0632</t>
   </si>
   <si>
+    <t>F1010</t>
+  </si>
+  <si>
+    <t>F10120</t>
+  </si>
+  <si>
+    <t>F10121</t>
+  </si>
+  <si>
+    <t>F10159</t>
+  </si>
+  <si>
+    <t>F1115</t>
+  </si>
+  <si>
+    <t>F1817</t>
+  </si>
+  <si>
+    <t>F339</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F1110</t>
+  </si>
+  <si>
     <t>F32</t>
   </si>
   <si>
-    <t>F339</t>
-  </si>
-  <si>
     <t>F429</t>
   </si>
   <si>
     <t>F334</t>
   </si>
   <si>
+    <t>Z811</t>
+  </si>
+  <si>
+    <t>F1827</t>
+  </si>
+  <si>
     <t>F325</t>
   </si>
   <si>
+    <t>F0281</t>
+  </si>
+  <si>
+    <t>Z7141</t>
+  </si>
+  <si>
+    <t>F11150</t>
+  </si>
+  <si>
+    <t>29040</t>
+  </si>
+  <si>
+    <t>30553</t>
+  </si>
+  <si>
     <t>29626</t>
   </si>
   <si>
+    <t>3003</t>
+  </si>
+  <si>
     <t>29633</t>
   </si>
   <si>
-    <t>3003</t>
-  </si>
-  <si>
     <t>29636</t>
   </si>
   <si>
+    <t>29411</t>
+  </si>
+  <si>
     <t>29520</t>
   </si>
   <si>
     <t>29500</t>
   </si>
   <si>
+    <t>29590</t>
+  </si>
+  <si>
+    <t>F202</t>
+  </si>
+  <si>
+    <t>F208</t>
+  </si>
+  <si>
+    <t>F209</t>
+  </si>
+  <si>
     <t>F20</t>
   </si>
   <si>
-    <t>F202</t>
-  </si>
-  <si>
-    <t>F208</t>
-  </si>
-  <si>
-    <t>F209</t>
-  </si>
-  <si>
-    <t>29590</t>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F10181</t>
+  </si>
+  <si>
+    <t>F1111</t>
   </si>
   <si>
     <t>F251</t>
   </si>
   <si>
+    <t>F10129</t>
+  </si>
+  <si>
+    <t>F323</t>
+  </si>
+  <si>
+    <t>Z714</t>
+  </si>
+  <si>
     <t>F322</t>
   </si>
   <si>
-    <t>F323</t>
+    <t>F1015</t>
+  </si>
+  <si>
+    <t>F320</t>
   </si>
   <si>
     <t>F428</t>
   </si>
   <si>
-    <t>F320</t>
-  </si>
-  <si>
     <t>F605</t>
   </si>
   <si>
     <t>F332</t>
   </si>
   <si>
+    <t>29421</t>
+  </si>
+  <si>
+    <t>29189</t>
+  </si>
+  <si>
+    <t>29625</t>
+  </si>
+  <si>
+    <t>29631</t>
+  </si>
+  <si>
+    <t>29635</t>
+  </si>
+  <si>
+    <t>33182</t>
+  </si>
+  <si>
+    <t>30503</t>
+  </si>
+  <si>
+    <t>F1114</t>
+  </si>
+  <si>
+    <t>G3183</t>
+  </si>
+  <si>
+    <t>F11151</t>
+  </si>
+  <si>
+    <t>F11121</t>
+  </si>
+  <si>
+    <t>F1118</t>
+  </si>
+  <si>
+    <t>F324</t>
+  </si>
+  <si>
+    <t>29623</t>
+  </si>
+  <si>
+    <t>V6542</t>
+  </si>
+  <si>
+    <t>30550</t>
+  </si>
+  <si>
+    <t>33119</t>
+  </si>
+  <si>
     <t>F329</t>
   </si>
   <si>
-    <t>F324</t>
+    <t>F11182</t>
   </si>
   <si>
     <t>29622</t>
   </si>
   <si>
-    <t>29623</t>
-  </si>
-  <si>
-    <t>29625</t>
-  </si>
-  <si>
-    <t>29631</t>
-  </si>
-  <si>
-    <t>29635</t>
+    <t>F203</t>
+  </si>
+  <si>
+    <t>F2089</t>
   </si>
   <si>
     <t>29510</t>
   </si>
   <si>
-    <t>F203</t>
-  </si>
-  <si>
-    <t>F2089</t>
+    <t>F015</t>
+  </si>
+  <si>
+    <t>F0151</t>
+  </si>
+  <si>
+    <t>F028</t>
+  </si>
+  <si>
+    <t>F10182</t>
+  </si>
+  <si>
+    <t>F10188</t>
+  </si>
+  <si>
+    <t>F1027</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>F1997</t>
+  </si>
+  <si>
+    <t>F3340</t>
+  </si>
+  <si>
+    <t>F1014</t>
+  </si>
+  <si>
+    <t>F10180</t>
   </si>
   <si>
     <t>F321</t>
   </si>
   <si>
+    <t>F3342</t>
+  </si>
+  <si>
+    <t>F333</t>
+  </si>
+  <si>
+    <t>F11159</t>
+  </si>
+  <si>
+    <t>F1397</t>
+  </si>
+  <si>
     <t>F33</t>
   </si>
   <si>
+    <t>F1897</t>
+  </si>
+  <si>
     <t>F331</t>
   </si>
   <si>
-    <t>F3340</t>
-  </si>
-  <si>
-    <t>F3342</t>
-  </si>
-  <si>
-    <t>F333</t>
+    <t>G310</t>
+  </si>
+  <si>
+    <t>F1019</t>
+  </si>
+  <si>
+    <t>29041</t>
+  </si>
+  <si>
+    <t>30500</t>
+  </si>
+  <si>
+    <t>29182</t>
+  </si>
+  <si>
+    <t>29289</t>
+  </si>
+  <si>
+    <t>29285</t>
+  </si>
+  <si>
+    <t>29620</t>
+  </si>
+  <si>
+    <t>29630</t>
+  </si>
+  <si>
+    <t>2900</t>
+  </si>
+  <si>
+    <t>3014</t>
   </si>
   <si>
     <t>29624</t>
   </si>
   <si>
-    <t>29620</t>
-  </si>
-  <si>
-    <t>29630</t>
-  </si>
-  <si>
-    <t>3014</t>
+    <t>Paranoid schizophrenia</t>
+  </si>
+  <si>
+    <t>Paranoid type schizophrenia unspecified</t>
   </si>
   <si>
     <t>Residual schizophrenia</t>
   </si>
   <si>
-    <t>Paranoid type schizophrenia unspecified</t>
-  </si>
-  <si>
-    <t>Paranoid schizophrenia</t>
+    <t>Vascular dementia without behavioral disturbance</t>
+  </si>
+  <si>
+    <t>Unspecified dementia without behavioral disturbance</t>
+  </si>
+  <si>
+    <t>Alcohol abuse with alcohol-induced psychotic disorder with delusions</t>
+  </si>
+  <si>
+    <t>Opioid abuse with intoxication uncomplicated</t>
+  </si>
+  <si>
+    <t>Opioid abuse with intoxication with perceptual disturbance</t>
+  </si>
+  <si>
+    <t>Other psychoactive substance abuse with psychoactive substance-induced persisting dementia</t>
+  </si>
+  <si>
+    <t>Other psychoactive substance dependence with psychoactive substance-induced persisting dementia</t>
+  </si>
+  <si>
+    <t>Other frontotemporal dementia</t>
+  </si>
+  <si>
+    <t>Alcohol abuse in remission</t>
+  </si>
+  <si>
+    <t>Opioid abuse with opioid-induced sexual dysfunction</t>
+  </si>
+  <si>
+    <t>Opioid abuse with other opioid-induced disorder</t>
+  </si>
+  <si>
+    <t>Major depressive disorder recurrent mild</t>
+  </si>
+  <si>
+    <t>Alcohol use unspecified with alcohol-induced persisting dementia</t>
+  </si>
+  <si>
+    <t>Alcohol abuse with other alcohol-induced disorders</t>
+  </si>
+  <si>
+    <t>Opioid abuse with intoxication</t>
+  </si>
+  <si>
+    <t>Opioid abuse with intoxication unspecified</t>
   </si>
   <si>
     <t>Other recurrent depressive disorders</t>
   </si>
   <si>
-    <t>Major depressive disorder recurrent mild</t>
+    <t>Alcohol abuse with intoxication</t>
+  </si>
+  <si>
+    <t>Alcohol abuse with alcohol-induced psychotic disorder with hallucinations</t>
+  </si>
+  <si>
+    <t>Opioid abuse with unspecified opioid-induced disorder</t>
   </si>
   <si>
     <t>Major depressive disorder recurrent in partial remission</t>
   </si>
   <si>
+    <t>Sedative hypnotic or anxiolytic dependence with sedative hypnotic or anxiolytic-induced persisting dementia</t>
+  </si>
+  <si>
+    <t>Dementia in conditions classified elsewhere without behavioral disturbance</t>
+  </si>
+  <si>
+    <t>Alcohol-induced persisting dementia</t>
+  </si>
+  <si>
+    <t>Drug-induced persisting dementia</t>
+  </si>
+  <si>
     <t>Major depressive affective disorder single episode mild</t>
   </si>
   <si>
@@ -321,10 +699,16 @@
     <t>Major depressive affective disorder recurrent episode severe specified as with psychotic behavior</t>
   </si>
   <si>
+    <t>Disorganized schizophrenia</t>
+  </si>
+  <si>
     <t>Schizophrenic disorders residual type unspecified</t>
   </si>
   <si>
-    <t>Disorganized schizophrenia</t>
+    <t>Dementia in other diseases classified elsewhere without behavioral disturbance</t>
+  </si>
+  <si>
+    <t>Unspecified dementia with behavioral disturbance</t>
   </si>
   <si>
     <t>Mood disorder due to known physiological condition with depressive features</t>
@@ -333,139 +717,292 @@
     <t>Mood disorder due to known physiological condition with major depressive-like episode</t>
   </si>
   <si>
+    <t>Alcohol abuse uncomplicated</t>
+  </si>
+  <si>
+    <t>Alcohol abuse with intoxication uncomplicated</t>
+  </si>
+  <si>
+    <t>Alcohol abuse with intoxication delirium</t>
+  </si>
+  <si>
+    <t>Alcohol abuse with alcohol-induced psychotic disorder unspecified</t>
+  </si>
+  <si>
+    <t>Opioid abuse with opioid-induced psychotic disorder</t>
+  </si>
+  <si>
+    <t>Inhalant abuse with inhalant-induced dementia</t>
+  </si>
+  <si>
     <t>Major depressive disorder recurrent unspecified</t>
   </si>
   <si>
+    <t>Alcohol abuse</t>
+  </si>
+  <si>
+    <t>Opioid abuse uncomplicated</t>
+  </si>
+  <si>
     <t>Obsessive-compulsive disorder unspecified</t>
   </si>
   <si>
     <t>Major depressive disorder recurrent in remission</t>
   </si>
   <si>
+    <t>Family history of alcohol abuse and dependence</t>
+  </si>
+  <si>
+    <t>Inhalant dependence with inhalant-induced dementia</t>
+  </si>
+  <si>
     <t>Major depressive disorder single episode in full remission</t>
   </si>
   <si>
+    <t>Dementia in other diseases classified elsewhere with behavioral disturbance</t>
+  </si>
+  <si>
+    <t>Alcohol abuse counseling and surveillance of alcoholic</t>
+  </si>
+  <si>
+    <t>Opioid abuse with opioid-induced psychotic disorder with delusions</t>
+  </si>
+  <si>
+    <t>Vascular dementia uncomplicated</t>
+  </si>
+  <si>
+    <t>Opioid abuse in remission</t>
+  </si>
+  <si>
     <t>Major depressive affective disorder single episode in full remission</t>
   </si>
   <si>
+    <t>Obsessive-compulsive disorders</t>
+  </si>
+  <si>
     <t>Major depressive affective disorder recurrent episode severe without mention of psychotic behavior</t>
   </si>
   <si>
-    <t>Obsessive-compulsive disorders</t>
-  </si>
-  <si>
     <t>Major depressive affective disorder recurrent episode in full remission</t>
   </si>
   <si>
+    <t>Dementia in conditions classified elsewhere with behavioral disturbance</t>
+  </si>
+  <si>
     <t>Catatonic type schizophrenia unspecified</t>
   </si>
   <si>
     <t>Simple type schizophrenia unspecified</t>
   </si>
   <si>
+    <t>Unspecified schizophrenia unspecified</t>
+  </si>
+  <si>
+    <t>Catatonic schizophrenia</t>
+  </si>
+  <si>
+    <t>Other schizophrenia</t>
+  </si>
+  <si>
+    <t>Schizophrenia unspecified</t>
+  </si>
+  <si>
     <t>Schizophrenia</t>
   </si>
   <si>
-    <t>Catatonic schizophrenia</t>
-  </si>
-  <si>
-    <t>Other schizophrenia</t>
-  </si>
-  <si>
-    <t>Schizophrenia unspecified</t>
-  </si>
-  <si>
-    <t>Unspecified schizophrenia unspecified</t>
+    <t>Alcohol abuse with alcohol-induced sexual dysfunction</t>
   </si>
   <si>
     <t>Schizoaffective disorder depressive type</t>
   </si>
   <si>
+    <t>Alcohol abuse with intoxication unspecified</t>
+  </si>
+  <si>
+    <t>Major depressive disorder single episode severe with psychotic features</t>
+  </si>
+  <si>
+    <t>Alcohol abuse counseling and surveillance</t>
+  </si>
+  <si>
     <t>Major depressive disorder single episode severe without psychotic features</t>
   </si>
   <si>
-    <t>Major depressive disorder single episode severe with psychotic features</t>
+    <t>Alcohol abuse with alcohol-induced psychotic disorder</t>
+  </si>
+  <si>
+    <t>Major depressive disorder single episode mild</t>
   </si>
   <si>
     <t>Other obsessive-compulsive disorder</t>
   </si>
   <si>
-    <t>Major depressive disorder single episode mild</t>
-  </si>
-  <si>
     <t>Obsessive-compulsive personality disorder</t>
   </si>
   <si>
     <t>Major depressive disorder recurrent severe without psychotic features</t>
   </si>
   <si>
+    <t>Dementia unspecified with behavioral disturbance</t>
+  </si>
+  <si>
+    <t>Other alcohol-induced mental disorders</t>
+  </si>
+  <si>
+    <t>Major depressive affective disorder single episode in partial or unspecified remission</t>
+  </si>
+  <si>
+    <t>Major depressive affective disorder recurrent episode mild</t>
+  </si>
+  <si>
+    <t>Major depressive affective disorder recurrent episode in partial or unspecified remission</t>
+  </si>
+  <si>
+    <t>Dementia with lewy bodies</t>
+  </si>
+  <si>
+    <t>Opioid abuse with opioid-induced mood disorder</t>
+  </si>
+  <si>
+    <t>Dementia with Lewy bodies</t>
+  </si>
+  <si>
+    <t>Opioid abuse with opioid-induced psychotic disorder with hallucinations</t>
+  </si>
+  <si>
+    <t>Opioid abuse with intoxication delirium</t>
+  </si>
+  <si>
+    <t>Major depressive disorder single episode in partial remission</t>
+  </si>
+  <si>
+    <t>Major depressive affective disorder single episode severe without mention of psychotic behavior</t>
+  </si>
+  <si>
+    <t>Counseling on substance use and abuse</t>
+  </si>
+  <si>
+    <t>Opioid abuse unspecified</t>
+  </si>
+  <si>
     <t>Major depressive disorder single episode unspecified</t>
   </si>
   <si>
-    <t>Major depressive disorder single episode in partial remission</t>
+    <t>Opioid abuse with opioid-induced sleep disorder</t>
   </si>
   <si>
     <t>Major depressive affective disorder single episode moderate</t>
   </si>
   <si>
-    <t>Major depressive affective disorder single episode severe without mention of psychotic behavior</t>
-  </si>
-  <si>
-    <t>Major depressive affective disorder single episode in partial or unspecified remission</t>
-  </si>
-  <si>
-    <t>Major depressive affective disorder recurrent episode mild</t>
-  </si>
-  <si>
-    <t>Major depressive affective disorder recurrent episode in partial or unspecified remission</t>
+    <t>Undifferentiated schizophrenia</t>
   </si>
   <si>
     <t>Disorganized type schizophrenia unspecified</t>
   </si>
   <si>
-    <t>Undifferentiated schizophrenia</t>
+    <t>Vascular dementia with behavioral disturbance</t>
+  </si>
+  <si>
+    <t>Alcohol abuse with alcohol-induced sleep disorder</t>
+  </si>
+  <si>
+    <t>Alcohol abuse with other alcohol-induced disorder</t>
+  </si>
+  <si>
+    <t>Alcohol dependence with alcohol-induced persisting dementia</t>
+  </si>
+  <si>
+    <t>Opioid abuse</t>
+  </si>
+  <si>
+    <t>Other psychoactive substance use unspecified with psychoactive substance-induced persisting dementia</t>
+  </si>
+  <si>
+    <t>Major depressive disorder recurrent in remission unspecified</t>
+  </si>
+  <si>
+    <t>Alcohol abuse with alcohol-induced mood disorder</t>
+  </si>
+  <si>
+    <t>Alcohol abuse with alcohol-induced anxiety disorder</t>
   </si>
   <si>
     <t>Major depressive disorder single episode moderate</t>
   </si>
   <si>
+    <t>Major depressive disorder recurrent in full remission</t>
+  </si>
+  <si>
+    <t>Major depressive disorder recurrent severe with psychotic symptoms</t>
+  </si>
+  <si>
+    <t>Opioid abuse with opioid-induced psychotic disorder unspecified</t>
+  </si>
+  <si>
+    <t>Sedative hypnotic or anxiolytic use unspecified with sedative hypnotic or anxiolytic-induced persisting dementia</t>
+  </si>
+  <si>
+    <t>Inhalant use unspecified with inhalant-induced persisting dementia</t>
+  </si>
+  <si>
     <t>Major depressive disorder recurrent moderate</t>
   </si>
   <si>
-    <t>Major depressive disorder recurrent in remission unspecified</t>
-  </si>
-  <si>
-    <t>Major depressive disorder recurrent in full remission</t>
-  </si>
-  <si>
-    <t>Major depressive disorder recurrent severe with psychotic symptoms</t>
+    <t>Frontotemporal dementia</t>
+  </si>
+  <si>
+    <t>Alcohol abuse with unspecified alcohol-induced disorder</t>
+  </si>
+  <si>
+    <t>Vascular dementia with delirium</t>
+  </si>
+  <si>
+    <t>Alcohol abuse unspecified</t>
+  </si>
+  <si>
+    <t>Alcohol induced sleep disorders</t>
+  </si>
+  <si>
+    <t>Other specified drug-induced mental disorders</t>
+  </si>
+  <si>
+    <t>Drug induced sleep disorders</t>
+  </si>
+  <si>
+    <t>Major depressive affective disorder single episode unspecified</t>
+  </si>
+  <si>
+    <t>Major depressive affective disorder recurrent episode unspecified</t>
+  </si>
+  <si>
+    <t>Senile dementia uncomplicated</t>
   </si>
   <si>
     <t>Major depressive affective disorder single episode severe specified as with psychotic behavior</t>
   </si>
   <si>
-    <t>Major depressive affective disorder single episode unspecified</t>
-  </si>
-  <si>
-    <t>Major depressive affective disorder recurrent episode unspecified</t>
-  </si>
-  <si>
     <t>Nish</t>
   </si>
   <si>
     <t>RWD_DB.RWD.ICD_GROUPER</t>
   </si>
   <si>
-    <t>24-08-2018</t>
-  </si>
-  <si>
-    <t>not strictly with our definition of depressio</t>
-  </si>
-  <si>
-    <t>not schizophrenia</t>
+    <t>28-8-2018</t>
+  </si>
+  <si>
+    <t>not strictly alcohol abuse</t>
+  </si>
+  <si>
+    <t>not strictly dementia</t>
+  </si>
+  <si>
+    <t>sczaffective disorder</t>
   </si>
   <si>
     <t>not strictly OCD</t>
+  </si>
+  <si>
+    <t>not opioid abuse</t>
   </si>
 </sst>
 </file>
@@ -871,20 +1408,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M136" sqref="M136:M137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -939,22 +1475,22 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="J2" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N2" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -965,22 +1501,22 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="J3" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N3" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -991,22 +1527,22 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="J4" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1017,22 +1553,22 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K5" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N5" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1046,31 +1582,31 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="J6" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N6" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1081,34 +1617,34 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N7" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1122,31 +1658,31 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="J8" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N8" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1157,34 +1693,34 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="J9" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K9" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N9" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1195,34 +1731,34 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="J10" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N10" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1233,34 +1769,34 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="J11" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K11" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N11" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1274,31 +1810,37 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="J12" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>319</v>
+      </c>
+      <c r="L12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M12" t="s">
+        <v>323</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1306,25 +1848,43 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="J13" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>319</v>
+      </c>
+      <c r="L13" t="s">
+        <v>321</v>
+      </c>
+      <c r="M13" t="s">
+        <v>323</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1332,25 +1892,37 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1364,37 +1936,37 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="J15" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>321</v>
       </c>
       <c r="M15" t="s">
-        <v>146</v>
+        <v>323</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1405,40 +1977,34 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="J16" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" t="s">
-        <v>146</v>
+        <v>319</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1449,34 +2015,34 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="J17" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1487,34 +2053,34 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="J18" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1525,34 +2091,34 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="J19" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K19" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1566,31 +2132,37 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="J20" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>319</v>
+      </c>
+      <c r="L20" t="s">
+        <v>321</v>
+      </c>
+      <c r="M20" t="s">
+        <v>323</v>
       </c>
       <c r="N20" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1601,34 +2173,34 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="J21" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K21" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N21" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1639,34 +2211,34 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="J22" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N22" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1677,34 +2249,34 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="J23" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N23" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1715,34 +2287,34 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="J24" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K24" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N24" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1753,34 +2325,34 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="J25" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N25" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1788,25 +2360,37 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="J26" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K26" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N26" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1814,25 +2398,37 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="J27" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K27" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N27" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1840,25 +2436,37 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="J28" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K28" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N28" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1866,25 +2474,43 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="J29" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>319</v>
+      </c>
+      <c r="L29" t="s">
+        <v>321</v>
+      </c>
+      <c r="M29" t="s">
+        <v>323</v>
       </c>
       <c r="N29" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1892,25 +2518,37 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="J30" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K30" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N30" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1918,25 +2556,43 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="J31" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K31" t="s">
-        <v>143</v>
+        <v>319</v>
+      </c>
+      <c r="L31" t="s">
+        <v>321</v>
+      </c>
+      <c r="M31" t="s">
+        <v>323</v>
       </c>
       <c r="N31" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1944,25 +2600,43 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="J32" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>319</v>
+      </c>
+      <c r="L32" t="s">
+        <v>321</v>
+      </c>
+      <c r="M32" t="s">
+        <v>323</v>
       </c>
       <c r="N32" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -1973,40 +2647,34 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="J33" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" t="s">
-        <v>145</v>
-      </c>
-      <c r="M33" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="N33" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2017,34 +2685,34 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="J34" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N34" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2055,34 +2723,34 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="J35" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N35" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2090,37 +2758,25 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="J36" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2128,37 +2784,25 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="J37" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2169,40 +2813,34 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="J38" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
-      </c>
-      <c r="L38" t="s">
-        <v>145</v>
-      </c>
-      <c r="M38" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="N38" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2216,31 +2854,31 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="J39" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N39" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2251,34 +2889,34 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="J40" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K40" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N40" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2289,34 +2927,34 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I41" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="J41" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N41" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2327,34 +2965,34 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="I42" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="J42" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N42" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2365,34 +3003,34 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="J43" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N43" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2403,34 +3041,34 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="J44" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K44" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N44" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2441,34 +3079,34 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="I45" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="J45" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K45" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N45" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2479,34 +3117,34 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="J46" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K46" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N46" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2514,25 +3152,43 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="J47" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K47" t="s">
-        <v>143</v>
+        <v>319</v>
+      </c>
+      <c r="L47" t="s">
+        <v>321</v>
+      </c>
+      <c r="M47" t="s">
+        <v>323</v>
       </c>
       <c r="N47" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2540,25 +3196,37 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="J48" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K48" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N48" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2566,25 +3234,37 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="J49" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K49" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N49" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -2595,34 +3275,34 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I50" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="J50" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K50" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N50" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -2633,34 +3313,34 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="I51" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J51" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K51" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N51" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -2671,34 +3351,34 @@
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="I52" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="J52" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K52" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N52" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -2709,34 +3389,34 @@
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="I53" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="J53" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K53" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N53" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -2747,34 +3427,40 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="I54" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="J54" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K54" t="s">
-        <v>143</v>
+        <v>319</v>
+      </c>
+      <c r="L54" t="s">
+        <v>321</v>
+      </c>
+      <c r="M54" t="s">
+        <v>322</v>
       </c>
       <c r="N54" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -2788,31 +3474,37 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="I55" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="J55" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K55" t="s">
-        <v>143</v>
+        <v>319</v>
+      </c>
+      <c r="L55" t="s">
+        <v>321</v>
+      </c>
+      <c r="M55" t="s">
+        <v>323</v>
       </c>
       <c r="N55" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -2823,34 +3515,34 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="I56" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="J56" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K56" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N56" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -2864,31 +3556,31 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="I57" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="J57" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K57" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="N57" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -2899,34 +3591,40 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I58" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="J58" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="K58" t="s">
-        <v>143</v>
+        <v>319</v>
+      </c>
+      <c r="L58" t="s">
+        <v>321</v>
+      </c>
+      <c r="M58" t="s">
+        <v>322</v>
       </c>
       <c r="N58" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -2937,43 +3635,3162 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" t="s">
+        <v>110</v>
+      </c>
+      <c r="I59" t="s">
+        <v>247</v>
+      </c>
+      <c r="J59" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K59" t="s">
+        <v>319</v>
+      </c>
+      <c r="N59" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" t="s">
+        <v>248</v>
+      </c>
+      <c r="J60" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K60" t="s">
+        <v>319</v>
+      </c>
+      <c r="N60" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" t="s">
+        <v>112</v>
+      </c>
+      <c r="I61" t="s">
+        <v>249</v>
+      </c>
+      <c r="J61" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K61" t="s">
+        <v>319</v>
+      </c>
+      <c r="N61" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" t="s">
+        <v>113</v>
+      </c>
+      <c r="I62" t="s">
+        <v>250</v>
+      </c>
+      <c r="J62" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K62" t="s">
+        <v>319</v>
+      </c>
+      <c r="N62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" t="s">
+        <v>114</v>
+      </c>
+      <c r="I63" t="s">
+        <v>251</v>
+      </c>
+      <c r="J63" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K63" t="s">
+        <v>319</v>
+      </c>
+      <c r="N63" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" t="s">
+        <v>115</v>
+      </c>
+      <c r="I64" t="s">
+        <v>252</v>
+      </c>
+      <c r="J64" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K64" t="s">
+        <v>319</v>
+      </c>
+      <c r="N64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s">
+        <v>52</v>
+      </c>
+      <c r="H65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I65" t="s">
+        <v>253</v>
+      </c>
+      <c r="J65" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K65" t="s">
+        <v>319</v>
+      </c>
+      <c r="N65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" t="s">
+        <v>117</v>
+      </c>
+      <c r="I66" t="s">
+        <v>254</v>
+      </c>
+      <c r="J66" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K66" t="s">
+        <v>319</v>
+      </c>
+      <c r="N66" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" t="s">
+        <v>118</v>
+      </c>
+      <c r="I67" t="s">
+        <v>255</v>
+      </c>
+      <c r="J67" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K67" t="s">
+        <v>319</v>
+      </c>
+      <c r="N67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" t="s">
+        <v>119</v>
+      </c>
+      <c r="I68" t="s">
+        <v>256</v>
+      </c>
+      <c r="J68" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K68" t="s">
+        <v>319</v>
+      </c>
+      <c r="N68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" t="s">
+        <v>120</v>
+      </c>
+      <c r="I69" t="s">
+        <v>257</v>
+      </c>
+      <c r="J69" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K69" t="s">
+        <v>319</v>
+      </c>
+      <c r="N69" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s">
+        <v>51</v>
+      </c>
+      <c r="H70" t="s">
+        <v>121</v>
+      </c>
+      <c r="I70" t="s">
+        <v>258</v>
+      </c>
+      <c r="J70" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K70" t="s">
+        <v>319</v>
+      </c>
+      <c r="N70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>51</v>
+      </c>
+      <c r="H71" t="s">
+        <v>122</v>
+      </c>
+      <c r="I71" t="s">
+        <v>259</v>
+      </c>
+      <c r="J71" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K71" t="s">
+        <v>319</v>
+      </c>
+      <c r="N71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H72" t="s">
+        <v>123</v>
+      </c>
+      <c r="I72" t="s">
+        <v>260</v>
+      </c>
+      <c r="J72" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K72" t="s">
+        <v>319</v>
+      </c>
+      <c r="N72" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>51</v>
+      </c>
+      <c r="H73" t="s">
+        <v>124</v>
+      </c>
+      <c r="I73" t="s">
+        <v>261</v>
+      </c>
+      <c r="J73" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K73" t="s">
+        <v>319</v>
+      </c>
+      <c r="N73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I74" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K74" t="s">
+        <v>319</v>
+      </c>
+      <c r="N74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" t="s">
+        <v>126</v>
+      </c>
+      <c r="I75" t="s">
+        <v>43</v>
+      </c>
+      <c r="J75" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K75" t="s">
+        <v>319</v>
+      </c>
+      <c r="N75" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" t="s">
+        <v>127</v>
+      </c>
+      <c r="I76" t="s">
+        <v>35</v>
+      </c>
+      <c r="J76" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K76" t="s">
+        <v>319</v>
+      </c>
+      <c r="N76" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
         <v>18</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>51</v>
+      </c>
+      <c r="H77" t="s">
+        <v>128</v>
+      </c>
+      <c r="I77" t="s">
+        <v>262</v>
+      </c>
+      <c r="J77" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K77" t="s">
+        <v>319</v>
+      </c>
+      <c r="N77" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
         <v>19</v>
       </c>
-      <c r="E59" t="s">
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s">
+        <v>51</v>
+      </c>
+      <c r="H78" t="s">
+        <v>129</v>
+      </c>
+      <c r="I78" t="s">
+        <v>249</v>
+      </c>
+      <c r="J78" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K78" t="s">
+        <v>319</v>
+      </c>
+      <c r="N78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" t="s">
+        <v>49</v>
+      </c>
+      <c r="G79" t="s">
+        <v>51</v>
+      </c>
+      <c r="H79" t="s">
+        <v>130</v>
+      </c>
+      <c r="I79" t="s">
+        <v>263</v>
+      </c>
+      <c r="J79" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K79" t="s">
+        <v>319</v>
+      </c>
+      <c r="L79" t="s">
+        <v>321</v>
+      </c>
+      <c r="M79" t="s">
+        <v>324</v>
+      </c>
+      <c r="N79" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" t="s">
+        <v>51</v>
+      </c>
+      <c r="H80" t="s">
+        <v>131</v>
+      </c>
+      <c r="I80" t="s">
+        <v>264</v>
+      </c>
+      <c r="J80" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K80" t="s">
+        <v>319</v>
+      </c>
+      <c r="N80" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" t="s">
+        <v>44</v>
+      </c>
+      <c r="G81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81" t="s">
+        <v>132</v>
+      </c>
+      <c r="I81" t="s">
+        <v>265</v>
+      </c>
+      <c r="J81" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K81" t="s">
+        <v>319</v>
+      </c>
+      <c r="N81" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
         <v>24</v>
       </c>
-      <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="E82" t="s">
         <v>31</v>
       </c>
-      <c r="H59" t="s">
-        <v>90</v>
-      </c>
-      <c r="I59" t="s">
-        <v>124</v>
-      </c>
-      <c r="J59" s="2">
-        <v>43336</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="F82" t="s">
+        <v>48</v>
+      </c>
+      <c r="G82" t="s">
+        <v>51</v>
+      </c>
+      <c r="H82" t="s">
+        <v>133</v>
+      </c>
+      <c r="I82" t="s">
+        <v>266</v>
+      </c>
+      <c r="J82" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K82" t="s">
+        <v>319</v>
+      </c>
+      <c r="L82" t="s">
+        <v>321</v>
+      </c>
+      <c r="M82" t="s">
+        <v>322</v>
+      </c>
+      <c r="N82" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" t="s">
+        <v>51</v>
+      </c>
+      <c r="H83" t="s">
+        <v>134</v>
+      </c>
+      <c r="I83" t="s">
+        <v>267</v>
+      </c>
+      <c r="J83" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K83" t="s">
+        <v>319</v>
+      </c>
+      <c r="N83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
+        <v>51</v>
+      </c>
+      <c r="H84" t="s">
+        <v>135</v>
+      </c>
+      <c r="I84" t="s">
+        <v>268</v>
+      </c>
+      <c r="J84" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K84" t="s">
+        <v>319</v>
+      </c>
+      <c r="N84" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85" t="s">
+        <v>51</v>
+      </c>
+      <c r="H85" t="s">
+        <v>136</v>
+      </c>
+      <c r="I85" t="s">
+        <v>269</v>
+      </c>
+      <c r="J85" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K85" t="s">
+        <v>319</v>
+      </c>
+      <c r="N85" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" t="s">
+        <v>51</v>
+      </c>
+      <c r="H86" t="s">
+        <v>137</v>
+      </c>
+      <c r="I86" t="s">
+        <v>270</v>
+      </c>
+      <c r="J86" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K86" t="s">
+        <v>319</v>
+      </c>
+      <c r="N86" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87" t="s">
+        <v>51</v>
+      </c>
+      <c r="H87" t="s">
+        <v>138</v>
+      </c>
+      <c r="I87" t="s">
+        <v>271</v>
+      </c>
+      <c r="J87" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K87" t="s">
+        <v>319</v>
+      </c>
+      <c r="L87" t="s">
+        <v>321</v>
+      </c>
+      <c r="M87" t="s">
+        <v>325</v>
+      </c>
+      <c r="N87" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" t="s">
+        <v>139</v>
+      </c>
+      <c r="I88" t="s">
+        <v>272</v>
+      </c>
+      <c r="J88" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K88" t="s">
+        <v>319</v>
+      </c>
+      <c r="N88" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" t="s">
+        <v>140</v>
+      </c>
+      <c r="I89" t="s">
+        <v>273</v>
+      </c>
+      <c r="J89" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K89" t="s">
+        <v>319</v>
+      </c>
+      <c r="N89" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" t="s">
+        <v>52</v>
+      </c>
+      <c r="H90" t="s">
+        <v>141</v>
+      </c>
+      <c r="I90" t="s">
+        <v>274</v>
+      </c>
+      <c r="J90" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K90" t="s">
+        <v>319</v>
+      </c>
+      <c r="L90" t="s">
+        <v>321</v>
+      </c>
+      <c r="M90" t="s">
+        <v>322</v>
+      </c>
+      <c r="N90" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" t="s">
+        <v>52</v>
+      </c>
+      <c r="H91" t="s">
+        <v>142</v>
+      </c>
+      <c r="I91" t="s">
+        <v>275</v>
+      </c>
+      <c r="J91" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K91" t="s">
+        <v>319</v>
+      </c>
+      <c r="N91" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G92" t="s">
+        <v>52</v>
+      </c>
+      <c r="H92" t="s">
         <v>143</v>
       </c>
-      <c r="L59" t="s">
+      <c r="I92" t="s">
+        <v>276</v>
+      </c>
+      <c r="J92" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K92" t="s">
+        <v>319</v>
+      </c>
+      <c r="N92" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" t="s">
+        <v>52</v>
+      </c>
+      <c r="H93" t="s">
+        <v>144</v>
+      </c>
+      <c r="I93" t="s">
+        <v>277</v>
+      </c>
+      <c r="J93" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K93" t="s">
+        <v>319</v>
+      </c>
+      <c r="N93" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" t="s">
+        <v>52</v>
+      </c>
+      <c r="H94" t="s">
         <v>145</v>
       </c>
-      <c r="M59" t="s">
+      <c r="I94" t="s">
+        <v>278</v>
+      </c>
+      <c r="J94" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K94" t="s">
+        <v>319</v>
+      </c>
+      <c r="N94" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95" t="s">
+        <v>146</v>
+      </c>
+      <c r="I95" t="s">
+        <v>205</v>
+      </c>
+      <c r="J95" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K95" t="s">
+        <v>319</v>
+      </c>
+      <c r="N95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" t="s">
+        <v>37</v>
+      </c>
+      <c r="G96" t="s">
+        <v>51</v>
+      </c>
+      <c r="H96" t="s">
+        <v>147</v>
+      </c>
+      <c r="I96" t="s">
+        <v>279</v>
+      </c>
+      <c r="J96" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K96" t="s">
+        <v>319</v>
+      </c>
+      <c r="N96" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" t="s">
+        <v>51</v>
+      </c>
+      <c r="H97" t="s">
         <v>148</v>
       </c>
-      <c r="N59" t="s">
-        <v>144</v>
+      <c r="I97" t="s">
+        <v>280</v>
+      </c>
+      <c r="J97" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K97" t="s">
+        <v>319</v>
+      </c>
+      <c r="N97" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98" t="s">
+        <v>51</v>
+      </c>
+      <c r="H98" t="s">
+        <v>149</v>
+      </c>
+      <c r="I98" t="s">
+        <v>281</v>
+      </c>
+      <c r="J98" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K98" t="s">
+        <v>319</v>
+      </c>
+      <c r="N98" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" t="s">
+        <v>150</v>
+      </c>
+      <c r="I99" t="s">
+        <v>282</v>
+      </c>
+      <c r="J99" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K99" t="s">
+        <v>319</v>
+      </c>
+      <c r="N99" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" t="s">
+        <v>51</v>
+      </c>
+      <c r="H100" t="s">
+        <v>151</v>
+      </c>
+      <c r="I100" t="s">
+        <v>207</v>
+      </c>
+      <c r="J100" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K100" t="s">
+        <v>319</v>
+      </c>
+      <c r="N100" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" t="s">
+        <v>44</v>
+      </c>
+      <c r="G101" t="s">
+        <v>51</v>
+      </c>
+      <c r="H101" t="s">
+        <v>152</v>
+      </c>
+      <c r="I101" t="s">
+        <v>283</v>
+      </c>
+      <c r="J101" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K101" t="s">
+        <v>319</v>
+      </c>
+      <c r="N101" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" t="s">
+        <v>44</v>
+      </c>
+      <c r="G102" t="s">
+        <v>52</v>
+      </c>
+      <c r="H102" t="s">
+        <v>153</v>
+      </c>
+      <c r="I102" t="s">
+        <v>284</v>
+      </c>
+      <c r="J102" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K102" t="s">
+        <v>319</v>
+      </c>
+      <c r="N102" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" t="s">
+        <v>48</v>
+      </c>
+      <c r="G103" t="s">
+        <v>52</v>
+      </c>
+      <c r="H103" t="s">
+        <v>154</v>
+      </c>
+      <c r="I103" t="s">
+        <v>285</v>
+      </c>
+      <c r="J103" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K103" t="s">
+        <v>319</v>
+      </c>
+      <c r="L103" t="s">
+        <v>321</v>
+      </c>
+      <c r="M103" t="s">
+        <v>322</v>
+      </c>
+      <c r="N103" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" t="s">
+        <v>52</v>
+      </c>
+      <c r="H104" t="s">
+        <v>155</v>
+      </c>
+      <c r="I104" t="s">
+        <v>286</v>
+      </c>
+      <c r="J104" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K104" t="s">
+        <v>319</v>
+      </c>
+      <c r="N104" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" t="s">
+        <v>52</v>
+      </c>
+      <c r="H105" t="s">
+        <v>156</v>
+      </c>
+      <c r="I105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J105" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K105" t="s">
+        <v>319</v>
+      </c>
+      <c r="L105" t="s">
+        <v>321</v>
+      </c>
+      <c r="M105" t="s">
+        <v>323</v>
+      </c>
+      <c r="N105" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" t="s">
+        <v>51</v>
+      </c>
+      <c r="H106" t="s">
+        <v>157</v>
+      </c>
+      <c r="I106" t="s">
+        <v>287</v>
+      </c>
+      <c r="J106" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K106" t="s">
+        <v>319</v>
+      </c>
+      <c r="N106" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s">
+        <v>51</v>
+      </c>
+      <c r="H107" t="s">
+        <v>158</v>
+      </c>
+      <c r="I107" t="s">
+        <v>288</v>
+      </c>
+      <c r="J107" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K107" t="s">
+        <v>319</v>
+      </c>
+      <c r="N107" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" t="s">
+        <v>44</v>
+      </c>
+      <c r="G108" t="s">
+        <v>52</v>
+      </c>
+      <c r="H108" t="s">
+        <v>159</v>
+      </c>
+      <c r="I108" t="s">
+        <v>289</v>
+      </c>
+      <c r="J108" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K108" t="s">
+        <v>319</v>
+      </c>
+      <c r="N108" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" t="s">
+        <v>51</v>
+      </c>
+      <c r="H109" t="s">
+        <v>160</v>
+      </c>
+      <c r="I109" t="s">
+        <v>290</v>
+      </c>
+      <c r="J109" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K109" t="s">
+        <v>319</v>
+      </c>
+      <c r="N109" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s">
+        <v>51</v>
+      </c>
+      <c r="H110" t="s">
+        <v>161</v>
+      </c>
+      <c r="I110" t="s">
+        <v>259</v>
+      </c>
+      <c r="J110" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K110" t="s">
+        <v>319</v>
+      </c>
+      <c r="N110" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
+        <v>52</v>
+      </c>
+      <c r="H111" t="s">
+        <v>162</v>
+      </c>
+      <c r="I111" t="s">
+        <v>291</v>
+      </c>
+      <c r="J111" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K111" t="s">
+        <v>319</v>
+      </c>
+      <c r="N111" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" t="s">
+        <v>51</v>
+      </c>
+      <c r="H112" t="s">
+        <v>163</v>
+      </c>
+      <c r="I112" t="s">
+        <v>34</v>
+      </c>
+      <c r="J112" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K112" t="s">
+        <v>319</v>
+      </c>
+      <c r="N112" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" t="s">
+        <v>51</v>
+      </c>
+      <c r="H113" t="s">
+        <v>164</v>
+      </c>
+      <c r="I113" t="s">
+        <v>292</v>
+      </c>
+      <c r="J113" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K113" t="s">
+        <v>319</v>
+      </c>
+      <c r="N113" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" t="s">
+        <v>43</v>
+      </c>
+      <c r="G114" t="s">
+        <v>51</v>
+      </c>
+      <c r="H114" t="s">
+        <v>165</v>
+      </c>
+      <c r="I114" t="s">
+        <v>43</v>
+      </c>
+      <c r="J114" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K114" t="s">
+        <v>319</v>
+      </c>
+      <c r="N114" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
+        <v>51</v>
+      </c>
+      <c r="H115" t="s">
+        <v>166</v>
+      </c>
+      <c r="I115" t="s">
+        <v>293</v>
+      </c>
+      <c r="J115" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K115" t="s">
+        <v>319</v>
+      </c>
+      <c r="N115" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" t="s">
+        <v>51</v>
+      </c>
+      <c r="H116" t="s">
+        <v>167</v>
+      </c>
+      <c r="I116" t="s">
+        <v>294</v>
+      </c>
+      <c r="J116" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K116" t="s">
+        <v>319</v>
+      </c>
+      <c r="N116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" t="s">
+        <v>51</v>
+      </c>
+      <c r="H117" t="s">
+        <v>168</v>
+      </c>
+      <c r="I117" t="s">
+        <v>295</v>
+      </c>
+      <c r="J117" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K117" t="s">
+        <v>319</v>
+      </c>
+      <c r="L117" t="s">
+        <v>321</v>
+      </c>
+      <c r="M117" t="s">
+        <v>323</v>
+      </c>
+      <c r="N117" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
+        <v>51</v>
+      </c>
+      <c r="H118" t="s">
+        <v>169</v>
+      </c>
+      <c r="I118" t="s">
+        <v>296</v>
+      </c>
+      <c r="J118" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K118" t="s">
+        <v>319</v>
+      </c>
+      <c r="N118" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" t="s">
+        <v>51</v>
+      </c>
+      <c r="H119" t="s">
+        <v>170</v>
+      </c>
+      <c r="I119" t="s">
+        <v>297</v>
+      </c>
+      <c r="J119" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K119" t="s">
+        <v>319</v>
+      </c>
+      <c r="L119" t="s">
+        <v>321</v>
+      </c>
+      <c r="M119" t="s">
+        <v>323</v>
+      </c>
+      <c r="N119" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" t="s">
+        <v>41</v>
+      </c>
+      <c r="G120" t="s">
+        <v>51</v>
+      </c>
+      <c r="H120" t="s">
+        <v>171</v>
+      </c>
+      <c r="I120" t="s">
+        <v>298</v>
+      </c>
+      <c r="J120" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K120" t="s">
+        <v>319</v>
+      </c>
+      <c r="N120" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" t="s">
+        <v>26</v>
+      </c>
+      <c r="F121" t="s">
+        <v>36</v>
+      </c>
+      <c r="G121" t="s">
+        <v>51</v>
+      </c>
+      <c r="H121" t="s">
+        <v>172</v>
+      </c>
+      <c r="I121" t="s">
+        <v>299</v>
+      </c>
+      <c r="J121" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K121" t="s">
+        <v>319</v>
+      </c>
+      <c r="N121" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" t="s">
+        <v>36</v>
+      </c>
+      <c r="G122" t="s">
+        <v>51</v>
+      </c>
+      <c r="H122" t="s">
+        <v>173</v>
+      </c>
+      <c r="I122" t="s">
+        <v>300</v>
+      </c>
+      <c r="J122" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K122" t="s">
+        <v>319</v>
+      </c>
+      <c r="N122" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" t="s">
+        <v>44</v>
+      </c>
+      <c r="G123" t="s">
+        <v>51</v>
+      </c>
+      <c r="H123" t="s">
+        <v>174</v>
+      </c>
+      <c r="I123" t="s">
+        <v>301</v>
+      </c>
+      <c r="J123" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K123" t="s">
+        <v>319</v>
+      </c>
+      <c r="N123" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" t="s">
+        <v>41</v>
+      </c>
+      <c r="G124" t="s">
+        <v>51</v>
+      </c>
+      <c r="H124" t="s">
+        <v>175</v>
+      </c>
+      <c r="I124" t="s">
+        <v>302</v>
+      </c>
+      <c r="J124" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K124" t="s">
+        <v>319</v>
+      </c>
+      <c r="N124" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125" t="s">
+        <v>51</v>
+      </c>
+      <c r="H125" t="s">
+        <v>176</v>
+      </c>
+      <c r="I125" t="s">
+        <v>303</v>
+      </c>
+      <c r="J125" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K125" t="s">
+        <v>319</v>
+      </c>
+      <c r="N125" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" t="s">
+        <v>26</v>
+      </c>
+      <c r="F126" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s">
+        <v>51</v>
+      </c>
+      <c r="H126" t="s">
+        <v>177</v>
+      </c>
+      <c r="I126" t="s">
+        <v>304</v>
+      </c>
+      <c r="J126" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K126" t="s">
+        <v>319</v>
+      </c>
+      <c r="N126" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" t="s">
+        <v>26</v>
+      </c>
+      <c r="F127" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127" t="s">
+        <v>51</v>
+      </c>
+      <c r="H127" t="s">
+        <v>178</v>
+      </c>
+      <c r="I127" t="s">
+        <v>305</v>
+      </c>
+      <c r="J127" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K127" t="s">
+        <v>319</v>
+      </c>
+      <c r="L127" t="s">
+        <v>321</v>
+      </c>
+      <c r="M127" t="s">
+        <v>323</v>
+      </c>
+      <c r="N127" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" t="s">
+        <v>41</v>
+      </c>
+      <c r="G128" t="s">
+        <v>51</v>
+      </c>
+      <c r="H128" t="s">
+        <v>179</v>
+      </c>
+      <c r="I128" t="s">
+        <v>41</v>
+      </c>
+      <c r="J128" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K128" t="s">
+        <v>319</v>
+      </c>
+      <c r="N128" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" t="s">
+        <v>46</v>
+      </c>
+      <c r="G129" t="s">
+        <v>51</v>
+      </c>
+      <c r="H129" t="s">
+        <v>180</v>
+      </c>
+      <c r="I129" t="s">
+        <v>306</v>
+      </c>
+      <c r="J129" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K129" t="s">
+        <v>319</v>
+      </c>
+      <c r="L129" t="s">
+        <v>321</v>
+      </c>
+      <c r="M129" t="s">
+        <v>323</v>
+      </c>
+      <c r="N129" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" t="s">
+        <v>41</v>
+      </c>
+      <c r="G130" t="s">
+        <v>51</v>
+      </c>
+      <c r="H130" t="s">
+        <v>181</v>
+      </c>
+      <c r="I130" t="s">
+        <v>307</v>
+      </c>
+      <c r="J130" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K130" t="s">
+        <v>319</v>
+      </c>
+      <c r="N130" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" t="s">
+        <v>51</v>
+      </c>
+      <c r="H131" t="s">
+        <v>182</v>
+      </c>
+      <c r="I131" t="s">
+        <v>308</v>
+      </c>
+      <c r="J131" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K131" t="s">
+        <v>319</v>
+      </c>
+      <c r="L131" t="s">
+        <v>321</v>
+      </c>
+      <c r="M131" t="s">
+        <v>323</v>
+      </c>
+      <c r="N131" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" t="s">
+        <v>26</v>
+      </c>
+      <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
+        <v>51</v>
+      </c>
+      <c r="H132" t="s">
+        <v>183</v>
+      </c>
+      <c r="I132" t="s">
+        <v>309</v>
+      </c>
+      <c r="J132" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K132" t="s">
+        <v>319</v>
+      </c>
+      <c r="N132" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" t="s">
+        <v>34</v>
+      </c>
+      <c r="G133" t="s">
+        <v>52</v>
+      </c>
+      <c r="H133" t="s">
+        <v>184</v>
+      </c>
+      <c r="I133" t="s">
+        <v>310</v>
+      </c>
+      <c r="J133" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K133" t="s">
+        <v>319</v>
+      </c>
+      <c r="N133" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" t="s">
+        <v>26</v>
+      </c>
+      <c r="F134" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" t="s">
+        <v>52</v>
+      </c>
+      <c r="H134" t="s">
+        <v>185</v>
+      </c>
+      <c r="I134" t="s">
+        <v>311</v>
+      </c>
+      <c r="J134" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K134" t="s">
+        <v>319</v>
+      </c>
+      <c r="N134" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" t="s">
+        <v>26</v>
+      </c>
+      <c r="F135" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" t="s">
+        <v>52</v>
+      </c>
+      <c r="H135" t="s">
+        <v>186</v>
+      </c>
+      <c r="I135" t="s">
+        <v>312</v>
+      </c>
+      <c r="J135" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K135" t="s">
+        <v>319</v>
+      </c>
+      <c r="L135" t="s">
+        <v>321</v>
+      </c>
+      <c r="M135" t="s">
+        <v>322</v>
+      </c>
+      <c r="N135" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" t="s">
+        <v>26</v>
+      </c>
+      <c r="F136" t="s">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s">
+        <v>52</v>
+      </c>
+      <c r="H136" t="s">
+        <v>187</v>
+      </c>
+      <c r="I136" t="s">
+        <v>313</v>
+      </c>
+      <c r="J136" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K136" t="s">
+        <v>319</v>
+      </c>
+      <c r="L136" t="s">
+        <v>321</v>
+      </c>
+      <c r="M136" t="s">
+        <v>326</v>
+      </c>
+      <c r="N136" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" t="s">
+        <v>26</v>
+      </c>
+      <c r="F137" t="s">
+        <v>37</v>
+      </c>
+      <c r="G137" t="s">
+        <v>52</v>
+      </c>
+      <c r="H137" t="s">
+        <v>188</v>
+      </c>
+      <c r="I137" t="s">
+        <v>314</v>
+      </c>
+      <c r="J137" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K137" t="s">
+        <v>319</v>
+      </c>
+      <c r="L137" t="s">
+        <v>321</v>
+      </c>
+      <c r="M137" t="s">
+        <v>326</v>
+      </c>
+      <c r="N137" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138" t="s">
+        <v>52</v>
+      </c>
+      <c r="H138" t="s">
+        <v>189</v>
+      </c>
+      <c r="I138" t="s">
+        <v>315</v>
+      </c>
+      <c r="J138" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K138" t="s">
+        <v>319</v>
+      </c>
+      <c r="N138" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" t="s">
+        <v>41</v>
+      </c>
+      <c r="G139" t="s">
+        <v>52</v>
+      </c>
+      <c r="H139" t="s">
+        <v>190</v>
+      </c>
+      <c r="I139" t="s">
+        <v>316</v>
+      </c>
+      <c r="J139" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K139" t="s">
+        <v>319</v>
+      </c>
+      <c r="N139" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" t="s">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
+        <v>52</v>
+      </c>
+      <c r="H140" t="s">
+        <v>191</v>
+      </c>
+      <c r="I140" t="s">
+        <v>317</v>
+      </c>
+      <c r="J140" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K140" t="s">
+        <v>319</v>
+      </c>
+      <c r="N140" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" t="s">
+        <v>33</v>
+      </c>
+      <c r="F141" t="s">
+        <v>50</v>
+      </c>
+      <c r="G141" t="s">
+        <v>52</v>
+      </c>
+      <c r="H141" t="s">
+        <v>192</v>
+      </c>
+      <c r="I141" t="s">
+        <v>271</v>
+      </c>
+      <c r="J141" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K141" t="s">
+        <v>319</v>
+      </c>
+      <c r="L141" t="s">
+        <v>321</v>
+      </c>
+      <c r="M141" t="s">
+        <v>325</v>
+      </c>
+      <c r="N141" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" t="s">
+        <v>44</v>
+      </c>
+      <c r="G142" t="s">
+        <v>52</v>
+      </c>
+      <c r="H142" t="s">
+        <v>193</v>
+      </c>
+      <c r="I142" t="s">
+        <v>318</v>
+      </c>
+      <c r="J142" s="2">
+        <v>43340</v>
+      </c>
+      <c r="K142" t="s">
+        <v>319</v>
+      </c>
+      <c r="N142" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N142"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>